--- a/projectTwo/projectTwo.xlsx
+++ b/projectTwo/projectTwo.xlsx
@@ -3,21 +3,34 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26327"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B59009D-CE66-4CB6-A98B-4AECBF6F47AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D59E3248-B7A5-4F2F-93B4-084A9383BA2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Table 1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="26">
-  <si>
-    <t xml:space="preserve">Predmet: </t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="39">
+  <si>
+    <t>Predmet: Puni naziv predmeta</t>
   </si>
   <si>
     <r>
@@ -62,6 +75,15 @@
     <t>br sati predviđen programom</t>
   </si>
   <si>
+    <t>KAT - 01</t>
+  </si>
+  <si>
+    <t>Studiji naziv</t>
+  </si>
+  <si>
+    <t>2022./23.</t>
+  </si>
+  <si>
     <t>Redni broj</t>
   </si>
   <si>
@@ -99,6 +121,36 @@
   </si>
   <si>
     <t>vjež</t>
+  </si>
+  <si>
+    <t>Ime Prezime1</t>
+  </si>
+  <si>
+    <t>redoviti profesor u trajnom zvanju</t>
+  </si>
+  <si>
+    <t>PUNI</t>
+  </si>
+  <si>
+    <t>Ime Prezime2</t>
+  </si>
+  <si>
+    <t>KUMUL. 50%</t>
+  </si>
+  <si>
+    <t>Ime Prezime3</t>
+  </si>
+  <si>
+    <t>redoviti profesor</t>
+  </si>
+  <si>
+    <t>Ime Prezime4</t>
+  </si>
+  <si>
+    <t>izvanredni profesor</t>
+  </si>
+  <si>
+    <t>Ime Prezime5</t>
   </si>
   <si>
     <t>UKUPNO</t>
@@ -120,7 +172,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -130,6 +182,10 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
       <sz val="11"/>
       <name val="Calibri"/>
     </font>
@@ -235,26 +291,33 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -650,7 +713,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A5:N35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -672,78 +735,78 @@
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A7" s="7"/>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
+      <c r="A7" s="8"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A8" s="7"/>
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
+      <c r="A8" s="8"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A9" s="7"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
+      <c r="A9" s="8"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A10" s="7"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="7"/>
+      <c r="A10" s="8"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A11" s="7"/>
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
-      <c r="I11" s="7"/>
+      <c r="A11" s="8"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
     </row>
     <row r="12" spans="1:14" ht="39.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="8" t="s">
+      <c r="A12" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B12" s="8"/>
+      <c r="B12" s="9"/>
       <c r="C12" s="1" t="s">
         <v>3</v>
       </c>
@@ -759,273 +822,436 @@
       <c r="G12" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H12" s="8" t="s">
+      <c r="H12" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="I12" s="8"/>
+      <c r="I12" s="9"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
+      <c r="A13" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" s="10"/>
+      <c r="C13" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>11</v>
+      </c>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="3"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="11"/>
     </row>
     <row r="15" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="8" t="s">
+      <c r="A15" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I15" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="J15" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="K15" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="L15" s="9"/>
+      <c r="M15" s="9"/>
+      <c r="N15" s="9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="9"/>
+      <c r="B16" s="9"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H16" s="9"/>
+      <c r="I16" s="9"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L16" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="M16" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="N16" s="9"/>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A17" s="3">
+        <v>1</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E17" s="3">
+        <v>3</v>
+      </c>
+      <c r="F17" s="3">
+        <v>0</v>
+      </c>
+      <c r="G17" s="3">
+        <v>0</v>
+      </c>
+      <c r="H17" s="3">
         <v>9</v>
       </c>
-      <c r="B15" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E15" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="I15" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="J15" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="K15" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="L15" s="8"/>
-      <c r="M15" s="8"/>
-      <c r="N15" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="8"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H16" s="8"/>
-      <c r="I16" s="8"/>
-      <c r="J16" s="8"/>
-      <c r="K16" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="L16" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="M16" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="N16" s="1"/>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A17" s="4"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
-      <c r="I17" s="4"/>
-      <c r="J17" s="4"/>
-      <c r="K17" s="4"/>
-      <c r="L17" s="4"/>
-      <c r="M17" s="4"/>
-      <c r="N17" s="5"/>
+      <c r="I17" s="3">
+        <v>0</v>
+      </c>
+      <c r="J17" s="3">
+        <v>0</v>
+      </c>
+      <c r="K17" s="4">
+        <v>3</v>
+      </c>
+      <c r="L17" s="4">
+        <v>0</v>
+      </c>
+      <c r="M17" s="4">
+        <v>0</v>
+      </c>
+      <c r="N17" s="5">
+        <v>3</v>
+      </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A18" s="4"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
-      <c r="I18" s="4"/>
-      <c r="J18" s="4"/>
-      <c r="K18" s="4"/>
-      <c r="L18" s="4"/>
-      <c r="M18" s="4"/>
-      <c r="N18" s="5"/>
+      <c r="A18" s="3">
+        <v>2</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E18" s="3">
+        <v>0</v>
+      </c>
+      <c r="F18" s="3">
+        <v>1</v>
+      </c>
+      <c r="G18" s="3">
+        <v>2</v>
+      </c>
+      <c r="H18" s="3">
+        <v>0</v>
+      </c>
+      <c r="I18" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="J18" s="3">
+        <v>2</v>
+      </c>
+      <c r="K18" s="4">
+        <v>0</v>
+      </c>
+      <c r="L18" s="4">
+        <v>1</v>
+      </c>
+      <c r="M18" s="4">
+        <v>2</v>
+      </c>
+      <c r="N18" s="5">
+        <v>3</v>
+      </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A19" s="4"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4"/>
-      <c r="I19" s="4"/>
-      <c r="J19" s="4"/>
-      <c r="K19" s="4"/>
-      <c r="L19" s="4"/>
-      <c r="M19" s="4"/>
-      <c r="N19" s="5"/>
+      <c r="A19" s="3">
+        <v>3</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E19" s="3">
+        <v>1</v>
+      </c>
+      <c r="F19" s="3">
+        <v>0</v>
+      </c>
+      <c r="G19" s="3">
+        <v>0</v>
+      </c>
+      <c r="H19" s="3">
+        <v>3</v>
+      </c>
+      <c r="I19" s="3">
+        <v>0</v>
+      </c>
+      <c r="J19" s="3">
+        <v>0</v>
+      </c>
+      <c r="K19" s="4">
+        <v>1</v>
+      </c>
+      <c r="L19" s="4">
+        <v>0</v>
+      </c>
+      <c r="M19" s="4">
+        <v>0</v>
+      </c>
+      <c r="N19" s="5">
+        <v>1</v>
+      </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A20" s="4"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="4"/>
-      <c r="I20" s="4"/>
-      <c r="J20" s="4"/>
-      <c r="K20" s="4"/>
-      <c r="L20" s="4"/>
-      <c r="M20" s="4"/>
-      <c r="N20" s="5"/>
+      <c r="A20" s="3">
+        <v>4</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E20" s="3">
+        <v>1</v>
+      </c>
+      <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
+        <v>4</v>
+      </c>
+      <c r="H20" s="3">
+        <v>3</v>
+      </c>
+      <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
+        <v>4</v>
+      </c>
+      <c r="K20" s="4">
+        <v>1</v>
+      </c>
+      <c r="L20" s="4">
+        <v>0</v>
+      </c>
+      <c r="M20" s="4">
+        <v>4</v>
+      </c>
+      <c r="N20" s="5">
+        <v>5</v>
+      </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A21" s="4"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="4"/>
-      <c r="H21" s="4"/>
-      <c r="I21" s="4"/>
-      <c r="J21" s="4"/>
-      <c r="K21" s="4"/>
-      <c r="L21" s="4"/>
-      <c r="M21" s="4"/>
-      <c r="N21" s="5"/>
+      <c r="A21" s="3">
+        <v>5</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3">
+        <v>0</v>
+      </c>
+      <c r="F21" s="3">
+        <v>2</v>
+      </c>
+      <c r="G21" s="3">
+        <v>0</v>
+      </c>
+      <c r="H21" s="3">
+        <v>0</v>
+      </c>
+      <c r="I21" s="3">
+        <v>3</v>
+      </c>
+      <c r="J21" s="3">
+        <v>0</v>
+      </c>
+      <c r="K21" s="4">
+        <v>0</v>
+      </c>
+      <c r="L21" s="4">
+        <v>2</v>
+      </c>
+      <c r="M21" s="4">
+        <v>0</v>
+      </c>
+      <c r="N21" s="5">
+        <v>2</v>
+      </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A22" s="4"/>
-      <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
-      <c r="G22" s="4"/>
-      <c r="H22" s="4"/>
-      <c r="I22" s="4"/>
-      <c r="J22" s="4"/>
+      <c r="A22" s="3"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
       <c r="K22" s="4"/>
       <c r="L22" s="4"/>
       <c r="M22" s="4"/>
       <c r="N22" s="5"/>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A23" s="4"/>
-      <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="4"/>
-      <c r="H23" s="4"/>
-      <c r="I23" s="4"/>
-      <c r="J23" s="4"/>
+      <c r="A23" s="3"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
       <c r="K23" s="4"/>
       <c r="L23" s="4"/>
       <c r="M23" s="4"/>
       <c r="N23" s="5"/>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A24" s="4"/>
-      <c r="B24" s="4"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
-      <c r="G24" s="4"/>
-      <c r="H24" s="4"/>
-      <c r="I24" s="4"/>
-      <c r="J24" s="4"/>
+      <c r="A24" s="3"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
       <c r="K24" s="4"/>
       <c r="L24" s="4"/>
       <c r="M24" s="4"/>
       <c r="N24" s="5"/>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A25" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="B25" s="9"/>
-      <c r="C25" s="9"/>
+      <c r="A25" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="B25" s="12"/>
+      <c r="C25" s="12"/>
       <c r="D25" s="6"/>
-      <c r="E25" s="6"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="6"/>
+      <c r="E25" s="7">
+        <f>SUM(E17:E24)</f>
+        <v>5</v>
+      </c>
+      <c r="F25" s="7">
+        <f>SUM(F17:F24)</f>
+        <v>3</v>
+      </c>
+      <c r="G25" s="7">
+        <f>SUM(G17:G24)</f>
+        <v>6</v>
+      </c>
       <c r="H25" s="6"/>
       <c r="I25" s="6"/>
       <c r="J25" s="6"/>
-      <c r="K25" s="6"/>
-      <c r="L25" s="6"/>
-      <c r="M25" s="6"/>
-      <c r="N25" s="6"/>
+      <c r="K25" s="7">
+        <f>SUM(E17:E24)</f>
+        <v>5</v>
+      </c>
+      <c r="L25" s="7">
+        <f>SUM(F17:F24)</f>
+        <v>3</v>
+      </c>
+      <c r="M25" s="7">
+        <f>SUM(G17:G24)</f>
+        <v>6</v>
+      </c>
+      <c r="N25" s="7">
+        <f>SUM(E17:E24)</f>
+        <v>5</v>
+      </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A28" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="B28" s="7"/>
-      <c r="C28" s="7"/>
+      <c r="A28" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B28" s="8"/>
+      <c r="C28" s="8"/>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A29" s="7"/>
-      <c r="B29" s="7"/>
-      <c r="C29" s="7"/>
+      <c r="A29" s="8"/>
+      <c r="B29" s="8"/>
+      <c r="C29" s="8"/>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A34" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="B34" s="7"/>
-      <c r="C34" s="7"/>
-      <c r="J34" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="K34" s="7"/>
-      <c r="L34" s="7"/>
+      <c r="A34" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B34" s="8"/>
+      <c r="C34" s="8"/>
+      <c r="J34" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="K34" s="8"/>
+      <c r="L34" s="8"/>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A35" s="7"/>
-      <c r="B35" s="7"/>
-      <c r="C35" s="7"/>
-      <c r="J35" s="7"/>
-      <c r="K35" s="7"/>
-      <c r="L35" s="7"/>
+      <c r="A35" s="8"/>
+      <c r="B35" s="8"/>
+      <c r="C35" s="8"/>
+      <c r="J35" s="8"/>
+      <c r="K35" s="8"/>
+      <c r="L35" s="8"/>
     </row>
   </sheetData>
-  <mergeCells count="16">
+  <mergeCells count="19">
+    <mergeCell ref="N15:N16"/>
     <mergeCell ref="A25:C25"/>
     <mergeCell ref="A28:C29"/>
     <mergeCell ref="A34:C35"/>
     <mergeCell ref="J34:L35"/>
-    <mergeCell ref="A6:I11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="H12:I12"/>
     <mergeCell ref="E15:G15"/>
     <mergeCell ref="K15:M15"/>
     <mergeCell ref="A15:A16"/>
@@ -1035,6 +1261,11 @@
     <mergeCell ref="H15:H16"/>
     <mergeCell ref="I15:I16"/>
     <mergeCell ref="J15:J16"/>
+    <mergeCell ref="A6:I11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="H13:I13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295"/>

--- a/projectTwo/projectTwo.xlsx
+++ b/projectTwo/projectTwo.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26327"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D59E3248-B7A5-4F2F-93B4-084A9383BA2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E8C6F94-72A7-4AB2-8048-56C55F6B4604}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="39">
   <si>
     <t>Predmet: Puni naziv predmeta</t>
   </si>
@@ -160,11 +160,11 @@
 Prof. dr. sc.: Ime Prezime</t>
   </si>
   <si>
+    <t>Dekan
+Prof. dr. sc. Ime Prezime</t>
+  </si>
+  <si>
     <t>Prodekan za financije i upravljanje
-Prof. dr. sc. Ime Prezime</t>
-  </si>
-  <si>
-    <t>Dekan
 Prof. dr. sc. Ime Prezime</t>
   </si>
 </sst>
@@ -291,8 +291,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -323,6 +326,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -711,9 +715,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A5:N35"/>
+  <dimension ref="A5:N36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="N27" sqref="N27"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -735,523 +741,734 @@
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A7" s="8"/>
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="8"/>
+      <c r="A7" s="9"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A8" s="8"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
+      <c r="A8" s="9"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A9" s="8"/>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8"/>
+      <c r="A9" s="9"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A10" s="8"/>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
+      <c r="A10" s="9"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A11" s="8"/>
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
-      <c r="I11" s="8"/>
+      <c r="A11" s="9"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="9"/>
     </row>
     <row r="12" spans="1:14" ht="39.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="9" t="s">
+      <c r="A12" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B12" s="9"/>
-      <c r="C12" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D12" s="1" t="s">
+      <c r="B12" s="10"/>
+      <c r="C12" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D12" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="E12" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F12" s="1" t="s">
+      <c r="F12" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G12" s="1" t="s">
+      <c r="G12" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H12" s="9" t="s">
+      <c r="H12" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="I12" s="9"/>
+      <c r="I12" s="10"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A13" s="10" t="s">
+      <c r="A13" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="10"/>
-      <c r="C13" s="2" t="s">
+      <c r="B13" s="11"/>
+      <c r="C13" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="D13" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="11"/>
-      <c r="I13" s="11"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="12"/>
+      <c r="I13" s="12"/>
     </row>
     <row r="15" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="9" t="s">
+      <c r="A15" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="9" t="s">
+      <c r="B15" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="9" t="s">
+      <c r="C15" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D15" s="9" t="s">
+      <c r="D15" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="E15" s="9" t="s">
+      <c r="E15" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="F15" s="9"/>
-      <c r="G15" s="9"/>
-      <c r="H15" s="9" t="s">
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="I15" s="9" t="s">
+      <c r="I15" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="J15" s="9" t="s">
+      <c r="J15" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="K15" s="9" t="s">
+      <c r="K15" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="L15" s="9"/>
-      <c r="M15" s="9"/>
-      <c r="N15" s="9" t="s">
+      <c r="L15" s="10"/>
+      <c r="M15" s="10"/>
+      <c r="N15" s="10" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:14" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="9"/>
-      <c r="B16" s="9"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="1" t="s">
+      <c r="A16" s="10"/>
+      <c r="B16" s="10"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F16" s="1" t="s">
+      <c r="F16" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="G16" s="1" t="s">
+      <c r="G16" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="H16" s="9"/>
-      <c r="I16" s="9"/>
-      <c r="J16" s="9"/>
-      <c r="K16" s="1" t="s">
+      <c r="H16" s="10"/>
+      <c r="I16" s="10"/>
+      <c r="J16" s="10"/>
+      <c r="K16" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="L16" s="1" t="s">
+      <c r="L16" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="M16" s="1" t="s">
+      <c r="M16" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="N16" s="9"/>
+      <c r="N16" s="10"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A17" s="3">
+      <c r="A17" s="4">
         <v>1</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C17" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="D17" s="3" t="s">
+      <c r="D17" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="E17" s="3">
-        <v>3</v>
-      </c>
-      <c r="F17" s="3">
-        <v>0</v>
-      </c>
-      <c r="G17" s="3">
-        <v>0</v>
-      </c>
-      <c r="H17" s="3">
+      <c r="E17" s="4">
+        <v>3</v>
+      </c>
+      <c r="F17" s="4">
+        <v>0</v>
+      </c>
+      <c r="G17" s="4">
+        <v>0</v>
+      </c>
+      <c r="H17" s="4">
         <v>9</v>
       </c>
-      <c r="I17" s="3">
-        <v>0</v>
-      </c>
-      <c r="J17" s="3">
-        <v>0</v>
-      </c>
-      <c r="K17" s="4">
-        <v>3</v>
-      </c>
-      <c r="L17" s="4">
-        <v>0</v>
-      </c>
-      <c r="M17" s="4">
-        <v>0</v>
-      </c>
-      <c r="N17" s="5">
-        <v>3</v>
+      <c r="I17" s="4">
+        <v>0</v>
+      </c>
+      <c r="J17" s="4">
+        <v>0</v>
+      </c>
+      <c r="K17" s="5">
+        <f t="shared" ref="K17:K26" si="0">(E17*H17)</f>
+        <v>27</v>
+      </c>
+      <c r="L17" s="5">
+        <f t="shared" ref="L17:L26" si="1">(F17*I17)</f>
+        <v>0</v>
+      </c>
+      <c r="M17" s="5">
+        <f t="shared" ref="M17:M26" si="2">(G17*J17)</f>
+        <v>0</v>
+      </c>
+      <c r="N17" s="6">
+        <f t="shared" ref="N17:N26" si="3">SUM(K17:M17)</f>
+        <v>27</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A18" s="3">
+      <c r="A18" s="4">
         <v>2</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="C18" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="D18" s="3" t="s">
+      <c r="D18" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E18" s="3">
-        <v>0</v>
-      </c>
-      <c r="F18" s="3">
+      <c r="E18" s="4">
+        <v>0</v>
+      </c>
+      <c r="F18" s="4">
         <v>1</v>
       </c>
-      <c r="G18" s="3">
+      <c r="G18" s="4">
         <v>2</v>
       </c>
-      <c r="H18" s="3">
-        <v>0</v>
-      </c>
-      <c r="I18" s="3">
+      <c r="H18" s="4">
+        <v>0</v>
+      </c>
+      <c r="I18" s="4">
         <v>1.5</v>
       </c>
-      <c r="J18" s="3">
+      <c r="J18" s="4">
         <v>2</v>
       </c>
-      <c r="K18" s="4">
-        <v>0</v>
-      </c>
-      <c r="L18" s="4">
+      <c r="K18" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L18" s="5">
+        <f t="shared" si="1"/>
+        <v>1.5</v>
+      </c>
+      <c r="M18" s="5">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="N18" s="6">
+        <f t="shared" si="3"/>
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A19" s="4">
+        <v>3</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E19" s="4">
         <v>1</v>
       </c>
-      <c r="M18" s="4">
+      <c r="F19" s="4">
+        <v>0</v>
+      </c>
+      <c r="G19" s="4">
+        <v>0</v>
+      </c>
+      <c r="H19" s="4">
+        <v>3</v>
+      </c>
+      <c r="I19" s="4">
+        <v>0</v>
+      </c>
+      <c r="J19" s="4">
+        <v>0</v>
+      </c>
+      <c r="K19" s="5">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="L19" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M19" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N19" s="6">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A20" s="4">
+        <v>4</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E20" s="4">
+        <v>1</v>
+      </c>
+      <c r="F20" s="4">
+        <v>0</v>
+      </c>
+      <c r="G20" s="4">
+        <v>4</v>
+      </c>
+      <c r="H20" s="4">
+        <v>3</v>
+      </c>
+      <c r="I20" s="4">
+        <v>0</v>
+      </c>
+      <c r="J20" s="4">
+        <v>4</v>
+      </c>
+      <c r="K20" s="5">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="L20" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M20" s="5">
+        <f t="shared" si="2"/>
+        <v>16</v>
+      </c>
+      <c r="N20" s="6">
+        <f t="shared" si="3"/>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A21" s="4">
+        <v>5</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4">
+        <v>0</v>
+      </c>
+      <c r="F21" s="4">
         <v>2</v>
       </c>
-      <c r="N18" s="5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A19" s="3">
-        <v>3</v>
-      </c>
-      <c r="B19" s="3" t="s">
+      <c r="G21" s="4">
+        <v>0</v>
+      </c>
+      <c r="H21" s="4">
+        <v>0</v>
+      </c>
+      <c r="I21" s="4">
+        <v>3</v>
+      </c>
+      <c r="J21" s="4">
+        <v>0</v>
+      </c>
+      <c r="K21" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L21" s="5">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="M21" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N21" s="6">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A22" s="4">
+        <v>6</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E22" s="4">
+        <v>3</v>
+      </c>
+      <c r="F22" s="4">
+        <v>0</v>
+      </c>
+      <c r="G22" s="4">
+        <v>0</v>
+      </c>
+      <c r="H22" s="4">
+        <v>9</v>
+      </c>
+      <c r="I22" s="4">
+        <v>0</v>
+      </c>
+      <c r="J22" s="4">
+        <v>0</v>
+      </c>
+      <c r="K22" s="5">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="L22" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M22" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N22" s="6">
+        <f t="shared" si="3"/>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A23" s="4">
+        <v>7</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E23" s="4">
+        <v>0</v>
+      </c>
+      <c r="F23" s="4">
+        <v>1</v>
+      </c>
+      <c r="G23" s="4">
+        <v>2</v>
+      </c>
+      <c r="H23" s="4">
+        <v>0</v>
+      </c>
+      <c r="I23" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="J23" s="4">
+        <v>2</v>
+      </c>
+      <c r="K23" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L23" s="5">
+        <f t="shared" si="1"/>
+        <v>1.5</v>
+      </c>
+      <c r="M23" s="5">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="N23" s="6">
+        <f t="shared" si="3"/>
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A24" s="4">
+        <v>8</v>
+      </c>
+      <c r="B24" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="C24" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="D19" s="3" t="s">
+      <c r="D24" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="E19" s="3">
+      <c r="E24" s="4">
         <v>1</v>
       </c>
-      <c r="F19" s="3">
-        <v>0</v>
-      </c>
-      <c r="G19" s="3">
-        <v>0</v>
-      </c>
-      <c r="H19" s="3">
-        <v>3</v>
-      </c>
-      <c r="I19" s="3">
-        <v>0</v>
-      </c>
-      <c r="J19" s="3">
-        <v>0</v>
-      </c>
-      <c r="K19" s="4">
+      <c r="F24" s="4">
+        <v>0</v>
+      </c>
+      <c r="G24" s="4">
+        <v>0</v>
+      </c>
+      <c r="H24" s="4">
+        <v>3</v>
+      </c>
+      <c r="I24" s="4">
+        <v>0</v>
+      </c>
+      <c r="J24" s="4">
+        <v>0</v>
+      </c>
+      <c r="K24" s="5">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="L24" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M24" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N24" s="6">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A25" s="4">
+        <v>9</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E25" s="4">
         <v>1</v>
       </c>
-      <c r="L19" s="4">
-        <v>0</v>
-      </c>
-      <c r="M19" s="4">
-        <v>0</v>
-      </c>
-      <c r="N19" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A20" s="3">
+      <c r="F25" s="4">
+        <v>0</v>
+      </c>
+      <c r="G25" s="4">
         <v>4</v>
       </c>
-      <c r="B20" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C20" s="3" t="s">
+      <c r="H25" s="4">
+        <v>3</v>
+      </c>
+      <c r="I25" s="4">
+        <v>0</v>
+      </c>
+      <c r="J25" s="4">
+        <v>4</v>
+      </c>
+      <c r="K25" s="5">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="L25" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M25" s="5">
+        <f t="shared" si="2"/>
+        <v>16</v>
+      </c>
+      <c r="N25" s="6">
+        <f t="shared" si="3"/>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A26" s="4">
+        <v>10</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C26" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E20" s="3">
-        <v>1</v>
-      </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
-      <c r="G20" s="3">
-        <v>4</v>
-      </c>
-      <c r="H20" s="3">
-        <v>3</v>
-      </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
-      <c r="J20" s="3">
-        <v>4</v>
-      </c>
-      <c r="K20" s="4">
-        <v>1</v>
-      </c>
-      <c r="L20" s="4">
-        <v>0</v>
-      </c>
-      <c r="M20" s="4">
-        <v>4</v>
-      </c>
-      <c r="N20" s="5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A21" s="3">
-        <v>5</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3">
-        <v>0</v>
-      </c>
-      <c r="F21" s="3">
+      <c r="D26" s="4"/>
+      <c r="E26" s="4">
+        <v>0</v>
+      </c>
+      <c r="F26" s="4">
         <v>2</v>
       </c>
-      <c r="G21" s="3">
-        <v>0</v>
-      </c>
-      <c r="H21" s="3">
-        <v>0</v>
-      </c>
-      <c r="I21" s="3">
-        <v>3</v>
-      </c>
-      <c r="J21" s="3">
-        <v>0</v>
-      </c>
-      <c r="K21" s="4">
-        <v>0</v>
-      </c>
-      <c r="L21" s="4">
-        <v>2</v>
-      </c>
-      <c r="M21" s="4">
-        <v>0</v>
-      </c>
-      <c r="N21" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A22" s="3"/>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
-      <c r="I22" s="3"/>
-      <c r="J22" s="3"/>
-      <c r="K22" s="4"/>
-      <c r="L22" s="4"/>
-      <c r="M22" s="4"/>
-      <c r="N22" s="5"/>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A23" s="3"/>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
-      <c r="J23" s="3"/>
-      <c r="K23" s="4"/>
-      <c r="L23" s="4"/>
-      <c r="M23" s="4"/>
-      <c r="N23" s="5"/>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A24" s="3"/>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
-      <c r="I24" s="3"/>
-      <c r="J24" s="3"/>
-      <c r="K24" s="4"/>
-      <c r="L24" s="4"/>
-      <c r="M24" s="4"/>
-      <c r="N24" s="5"/>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A25" s="12" t="s">
+      <c r="G26" s="4">
+        <v>0</v>
+      </c>
+      <c r="H26" s="4">
+        <v>0</v>
+      </c>
+      <c r="I26" s="4">
+        <v>3</v>
+      </c>
+      <c r="J26" s="4">
+        <v>0</v>
+      </c>
+      <c r="K26" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L26" s="5">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="M26" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N26" s="6">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A27" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="B25" s="12"/>
-      <c r="C25" s="12"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="7">
-        <f>SUM(E17:E24)</f>
-        <v>5</v>
-      </c>
-      <c r="F25" s="7">
-        <f>SUM(F17:F24)</f>
-        <v>3</v>
-      </c>
-      <c r="G25" s="7">
-        <f>SUM(G17:G24)</f>
+      <c r="B27" s="13"/>
+      <c r="C27" s="13"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="8">
+        <f>SUM(E17:E26)</f>
+        <v>10</v>
+      </c>
+      <c r="F27" s="8">
+        <f>SUM(F17:F26)</f>
         <v>6</v>
       </c>
-      <c r="H25" s="6"/>
-      <c r="I25" s="6"/>
-      <c r="J25" s="6"/>
-      <c r="K25" s="7">
-        <f>SUM(E17:E24)</f>
-        <v>5</v>
-      </c>
-      <c r="L25" s="7">
-        <f>SUM(F17:F24)</f>
-        <v>3</v>
-      </c>
-      <c r="M25" s="7">
-        <f>SUM(G17:G24)</f>
-        <v>6</v>
-      </c>
-      <c r="N25" s="7">
-        <f>SUM(E17:E24)</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A28" s="8" t="s">
+      <c r="G27" s="8">
+        <f>SUM(G17:G26)</f>
+        <v>12</v>
+      </c>
+      <c r="H27" s="7"/>
+      <c r="I27" s="7"/>
+      <c r="J27" s="7"/>
+      <c r="K27" s="8">
+        <f>SUM(K17:K26)</f>
+        <v>66</v>
+      </c>
+      <c r="L27" s="8">
+        <f>SUM(L17:L26)</f>
+        <v>15</v>
+      </c>
+      <c r="M27" s="8">
+        <f>SUM(M17:M26)</f>
+        <v>40</v>
+      </c>
+      <c r="N27" s="8">
+        <f>SUM(N17:N26)</f>
+        <v>121</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A30" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="B28" s="8"/>
-      <c r="C28" s="8"/>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A29" s="8"/>
-      <c r="B29" s="8"/>
-      <c r="C29" s="8"/>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A34" s="8" t="s">
+      <c r="B30" s="9"/>
+      <c r="C30" s="9"/>
+      <c r="J30" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="B34" s="8"/>
-      <c r="C34" s="8"/>
-      <c r="J34" s="8" t="s">
+      <c r="K30" s="14"/>
+      <c r="L30" s="14"/>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A31" s="9"/>
+      <c r="B31" s="9"/>
+      <c r="C31" s="9"/>
+      <c r="J31" s="14"/>
+      <c r="K31" s="14"/>
+      <c r="L31" s="14"/>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A35" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="K34" s="8"/>
-      <c r="L34" s="8"/>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A35" s="8"/>
-      <c r="B35" s="8"/>
-      <c r="C35" s="8"/>
-      <c r="J35" s="8"/>
-      <c r="K35" s="8"/>
-      <c r="L35" s="8"/>
+      <c r="B35" s="9"/>
+      <c r="C35" s="9"/>
+      <c r="J35" s="1"/>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A36" s="9"/>
+      <c r="B36" s="9"/>
+      <c r="C36" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="19">
     <mergeCell ref="N15:N16"/>
-    <mergeCell ref="A25:C25"/>
-    <mergeCell ref="A28:C29"/>
-    <mergeCell ref="A34:C35"/>
-    <mergeCell ref="J34:L35"/>
+    <mergeCell ref="A27:C27"/>
+    <mergeCell ref="A30:C31"/>
+    <mergeCell ref="J30:L31"/>
+    <mergeCell ref="A35:C36"/>
     <mergeCell ref="E15:G15"/>
     <mergeCell ref="K15:M15"/>
     <mergeCell ref="A15:A16"/>
